--- a/config_hlw/jika_config.xlsx
+++ b/config_hlw/jika_config.xlsx
@@ -94,10 +94,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1980福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>4万鱼币</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -123,6 +119,10 @@
   </si>
   <si>
     <t>3万鱼币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>198福利券</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -612,7 +612,7 @@
   <dimension ref="A1:R1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -663,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>11</v>
@@ -684,7 +684,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>10</v>
@@ -705,7 +705,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>12</v>
@@ -726,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>13</v>
@@ -747,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>12</v>
@@ -789,7 +789,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>15</v>
@@ -810,7 +810,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>16</v>
@@ -831,7 +831,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>11</v>

--- a/config_hlw/jika_config.xlsx
+++ b/config_hlw/jika_config.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="5" r:id="rId1"/>
     <sheet name="help_info" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -38,6 +38,70 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>话费碎片*100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ls_icon_hb1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_icon_yb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_yb1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_icon_gold3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hfsp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_yb2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_icon_gold8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4万鱼币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5万鱼币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5万金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6万鱼币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>50万鱼币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100万金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3万鱼币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>198福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>id|序列</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -46,83 +110,19 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>话费碎片*100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>3.抽奖券每天可使用1张，若当天未使用也会扣除一张，请及时使用。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1.季卡礼包最高可获得&lt;color=#BD1C1CFF&gt;9亿&lt;/color&gt;金币价值奖励；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.季卡礼包购买后立即获得880万金币和90张抽奖券；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ls_icon_hb1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_icon_yb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_yb1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_icon_gold3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hfsp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_yb2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_icon_gold8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.若抽完90张抽奖券获得道具的金币价值加上880万金币之和小于1980万，则联系客服可再领取1980万金币。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4万鱼币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5万鱼币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5万金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>6万鱼币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>50万鱼币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>100万金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3万鱼币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>198福利券</t>
+    <t>1.季卡礼包最高可获得&lt;color=#BD1C1CFF&gt;9088万&lt;/color&gt;金币价值奖励；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.季卡礼包购买后立即获得88万金币和90张抽奖券；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.若抽完90张抽奖券获得道具的金币价值加上88万金币之和小于298万，则联系客服可再领198万金币</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -269,7 +269,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -328,9 +328,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -611,7 +608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -663,10 +660,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="15"/>
@@ -684,10 +681,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="15"/>
@@ -705,10 +702,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="15"/>
@@ -726,10 +723,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="15"/>
@@ -747,10 +744,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="15"/>
@@ -768,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="15"/>
@@ -789,10 +786,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="15"/>
@@ -810,10 +807,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="15"/>
@@ -831,10 +828,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="15"/>
@@ -1205,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1216,10 +1213,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1227,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1235,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1243,15 +1240,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>17</v>
+      <c r="B5" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">

--- a/config_hlw/jika_config.xlsx
+++ b/config_hlw/jika_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="5" r:id="rId1"/>
@@ -210,7 +210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -234,30 +234,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -314,19 +299,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -608,16 +591,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.875" customWidth="1"/>
-    <col min="2" max="2" width="44.75" customWidth="1"/>
-    <col min="3" max="3" width="27.625" customWidth="1"/>
-    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" customWidth="1"/>
     <col min="6" max="6" width="21.625" customWidth="1"/>
     <col min="7" max="7" width="19.25" customWidth="1"/>
@@ -633,7 +616,7 @@
     <col min="18" max="21" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -646,23 +629,23 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="4"/>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="17">
         <v>1</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="6"/>
@@ -673,7 +656,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -683,7 +666,7 @@
       <c r="C3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="19" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="6"/>
@@ -694,17 +677,17 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" s="17">
         <v>3</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="19" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="6"/>
@@ -715,7 +698,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -725,7 +708,7 @@
       <c r="C5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="6"/>
@@ -736,17 +719,17 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>5</v>
       </c>
       <c r="B6" s="17">
         <v>5</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="19" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="6"/>
@@ -757,7 +740,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -767,7 +750,7 @@
       <c r="C7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="6"/>
@@ -778,17 +761,17 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>7</v>
       </c>
       <c r="B8" s="17">
         <v>7</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="19" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="6"/>
@@ -799,7 +782,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -809,7 +792,7 @@
       <c r="C9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="6"/>
@@ -820,7 +803,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -830,7 +813,7 @@
       <c r="C10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="6"/>
@@ -1202,7 +1185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/config_hlw/jika_config.xlsx
+++ b/config_hlw/jika_config.xlsx
@@ -98,10 +98,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>198福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>id|序列</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -123,6 +119,10 @@
   </si>
   <si>
     <t>4.若抽完90张抽奖券获得道具的金币价值加上88万金币之和小于298万，则联系客服可再领198万金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>198福卡</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -592,7 +592,7 @@
   <dimension ref="A1:R1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -664,7 +664,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>5</v>
@@ -1196,10 +1196,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1207,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1215,7 +1215,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1223,7 +1223,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1231,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
